--- a/data/evaluation/evaluation_HaSharon_Winter_Clementines.xlsx
+++ b/data/evaluation/evaluation_HaSharon_Winter_Clementines.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2507.561059120138</v>
+        <v>2575.875932959774</v>
       </c>
       <c r="C4" t="n">
-        <v>10476135.32347305</v>
+        <v>10756046.38042288</v>
       </c>
       <c r="D4" t="n">
-        <v>3236.685854925228</v>
+        <v>3279.64119690293</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.09634889630439347</v>
+        <v>-0.1256421584544858</v>
       </c>
     </row>
     <row r="5">
